--- a/results/I3_N5_M2_T45_C150_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>854.7518199725401</v>
+        <v>297.3343409182375</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3410000801086426</v>
+        <v>0.3590002059936523</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.30798779311381</v>
+        <v>29.33434091823749</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.82160870838837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.525440886425823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>832.7400000013888</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.71927412272859</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>36.96930412595096</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.28956874289236</v>
+        <v>40.12799056179722</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6159517319523</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.11679712152639</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,48 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000032</v>
+        <v>130.6</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>87.37200000000513</v>
+        <v>119.8</v>
       </c>
     </row>
     <row r="5">
@@ -1085,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>160.1040000000361</v>
+        <v>176.8</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>155.91700000004</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>223.1700000000737</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="8">
@@ -1118,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>223.1700000000924</v>
+        <v>176.8</v>
       </c>
     </row>
     <row r="9">
@@ -1129,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>160.1040000000473</v>
+        <v>130.6</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>73.1700000000918</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="3">
@@ -1187,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.10400000004708</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,28 +1264,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
